--- a/docs/12x12_2.xlsx
+++ b/docs/12x12_2.xlsx
@@ -10988,8 +10988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:M1651"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D85" sqref="D85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
